--- a/Task1/TestCases.xlsx
+++ b/Task1/TestCases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Projects/mtsqa/Task1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Projects/mtsqa2/Task1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43C0A23-4015-2A41-891B-4898561B6F91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6247A52F-17D6-1847-A520-DEBC7BF74DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{A876DF0C-7B49-4543-8847-41337BD103CF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{A876DF0C-7B49-4543-8847-41337BD103CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -34,6 +34,92 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+  <si>
+    <t>№</t>
+  </si>
+  <si>
+    <t>Приоритет</t>
+  </si>
+  <si>
+    <t>Название</t>
+  </si>
+  <si>
+    <t>Предусловия</t>
+  </si>
+  <si>
+    <t>Тестовые данные</t>
+  </si>
+  <si>
+    <t>Шаги</t>
+  </si>
+  <si>
+    <t>Ожидаемый результат</t>
+  </si>
+  <si>
+    <t>Статус прохождения</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Перейти на страницу https://moskva.mts.ru/personal</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Оставить заявку на оформление тарифа</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку "Тарифы"</t>
+  </si>
+  <si>
+    <t>Откроеся главная страница mts.ru</t>
+  </si>
+  <si>
+    <t>Откроется каталог актуальных тарифов</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку "Подробнее" на карточке "Тариф №1"</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку "Подключить"</t>
+  </si>
+  <si>
+    <t>Откроется подробная страница описания тарифа со всем его услкгами</t>
+  </si>
+  <si>
+    <t>Откроется модальное окно, для заполнения заявки</t>
+  </si>
+  <si>
+    <t>Ввести данные в текстовые поля "номер" и "имя"</t>
+  </si>
+  <si>
+    <t>Поля ввода не выведут предупреждения</t>
+  </si>
+  <si>
+    <t>Нажать на кнопку "Оставить заявку"</t>
+  </si>
+  <si>
+    <t>Откроется окно с текстом "Заявка отправлена"</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>"", +7918625327</t>
+  </si>
+  <si>
+    <t>"Алексей", +79186253434</t>
+  </si>
+  <si>
+    <t>Failed</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -46,15 +132,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -62,12 +154,110 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -382,12 +572,287 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9212D7-D869-8B42-BC61-E1262BC680DB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="3" max="3" width="35.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="4"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Task1/TestCases.xlsx
+++ b/Task1/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Projects/mtsqa2/Task1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6247A52F-17D6-1847-A520-DEBC7BF74DA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330ACEF0-E278-6D42-8075-A177F9AC33A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{A876DF0C-7B49-4543-8847-41337BD103CF}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{A876DF0C-7B49-4543-8847-41337BD103CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
   <si>
     <t>№</t>
   </si>
@@ -116,16 +116,59 @@
   </si>
   <si>
     <t>Failed</t>
+  </si>
+  <si>
+    <t>Откроеся главная страница mts.ru, c текстом "Пополнение и оплата"</t>
+  </si>
+  <si>
+    <t>Откроется каталог с "Тариф №1"</t>
+  </si>
+  <si>
+    <t>Фактический результат</t>
+  </si>
+  <si>
+    <t>На странице присутствует текст "Пополнение и оплата"</t>
+  </si>
+  <si>
+    <t>На странице присутствует текст "Тариф №1"</t>
+  </si>
+  <si>
+    <t>На странице присутствует текст "Заявка на подключение"</t>
+  </si>
+  <si>
+    <t>Откроется подробная страница описания тарифа с описанием
+ "Тариф с мобильной связью, домашним интернетом, ТВ и онлайн-кинотеатром KION"</t>
+  </si>
+  <si>
+    <t>На странице присутствует текст "Тариф 
+с мобильной связью, домашним интернетом, ТВ и онлайн-кинотеатром KION"</t>
+  </si>
+  <si>
+    <t>Откроется модальное окно с текстом "Заявка на подключение"</t>
+  </si>
+  <si>
+    <t>На станице нету текста "Заполните поле" и "Укажите ваше имя"</t>
+  </si>
+  <si>
+    <t>На странице присутствует текст "Заявка отправлена"</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -244,10 +287,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -255,8 +297,24 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -572,10 +630,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9212D7-D869-8B42-BC61-E1262BC680DB}">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -584,271 +642,283 @@
     <col min="4" max="4" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="23.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="53.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="62.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="79.6640625" customWidth="1"/>
+    <col min="8" max="8" width="69.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="3" t="s">
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="F3" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="3" t="s">
+      <c r="G3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="G4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
+      <c r="F5" t="s">
         <v>16</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="3" t="s">
+      <c r="G5" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>20</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="3"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H7" s="6" t="s">
+      <c r="H7" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G8" s="19"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D9" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E9" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="10"/>
+      <c r="I9" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="12"/>
+      <c r="I10" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="12"/>
+      <c r="I11" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="12"/>
+      <c r="I12" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2" t="s">
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="12"/>
+      <c r="I13" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="2" t="s">
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="12"/>
+      <c r="I14" s="14" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="G15" s="5" t="s">
+      <c r="G15" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="H15" s="6" t="s">
+      <c r="H15" s="15"/>
+      <c r="I15" s="16" t="s">
         <v>26</v>
       </c>
     </row>

--- a/Task1/TestCases.xlsx
+++ b/Task1/TestCases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Projects/mtsqa2/Task1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{330ACEF0-E278-6D42-8075-A177F9AC33A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE99F47F-646F-4E4C-AF7A-6921D3AF7950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{A876DF0C-7B49-4543-8847-41337BD103CF}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
   <si>
     <t>№</t>
   </si>
@@ -76,24 +76,12 @@
     <t>Нажать на кнопку "Тарифы"</t>
   </si>
   <si>
-    <t>Откроеся главная страница mts.ru</t>
-  </si>
-  <si>
-    <t>Откроется каталог актуальных тарифов</t>
-  </si>
-  <si>
     <t>Нажать на кнопку "Подробнее" на карточке "Тариф №1"</t>
   </si>
   <si>
     <t>Нажать на кнопку "Подключить"</t>
   </si>
   <si>
-    <t>Откроется подробная страница описания тарифа со всем его услкгами</t>
-  </si>
-  <si>
-    <t>Откроется модальное окно, для заполнения заявки</t>
-  </si>
-  <si>
     <t>Ввести данные в текстовые поля "номер" и "имя"</t>
   </si>
   <si>
@@ -107,9 +95,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>"", +7918625327</t>
   </si>
   <si>
     <t>"Алексей", +79186253434</t>
@@ -151,24 +136,19 @@
   </si>
   <si>
     <t>На странице присутствует текст "Заявка отправлена"</t>
+  </si>
+  <si>
+    <t>"", +79186253434</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -287,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -300,19 +280,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -632,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9212D7-D869-8B42-BC61-E1262BC680DB}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -670,7 +640,7 @@
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>7</v>
@@ -687,19 +657,19 @@
         <v>11</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>10</v>
@@ -711,10 +681,10 @@
         <v>12</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>10</v>
@@ -723,13 +693,13 @@
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="F4" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="17" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="17" t="s">
-        <v>34</v>
+        <v>13</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>29</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>10</v>
@@ -738,13 +708,13 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="18" t="s">
-        <v>35</v>
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>10</v>
@@ -753,13 +723,13 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="F6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="G6" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>10</v>
@@ -772,20 +742,20 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="G8" s="19"/>
+      <c r="G8" s="11"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
@@ -794,132 +764,134 @@
       <c r="B9" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="C9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="10" t="s">
+      <c r="G9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H9" s="10"/>
-      <c r="I9" s="11" t="s">
+      <c r="H9" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="12" t="s">
+      <c r="D10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="14" t="s">
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12" t="s">
+      <c r="F11" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="H11" s="12"/>
-      <c r="I11" s="14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="14" t="s">
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="12"/>
-      <c r="I13" s="14" t="s">
+      <c r="F13" t="s">
+        <v>14</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="2" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="H14" s="12"/>
-      <c r="I14" s="14" t="s">
-        <v>26</v>
+      <c r="F14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="16" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Task1/TestCases.xlsx
+++ b/Task1/TestCases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Projects/mtsqa2/Task1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE99F47F-646F-4E4C-AF7A-6921D3AF7950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0D7633B-8D47-0E42-9419-3293714CEE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{A876DF0C-7B49-4543-8847-41337BD103CF}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17520" xr2:uid="{A876DF0C-7B49-4543-8847-41337BD103CF}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="36">
   <si>
     <t>№</t>
   </si>
@@ -70,9 +70,6 @@
     <t>Passed</t>
   </si>
   <si>
-    <t>Оставить заявку на оформление тарифа</t>
-  </si>
-  <si>
     <t>Нажать на кнопку "Тарифы"</t>
   </si>
   <si>
@@ -98,9 +95,6 @@
   </si>
   <si>
     <t>"Алексей", +79186253434</t>
-  </si>
-  <si>
-    <t>Failed</t>
   </si>
   <si>
     <t>Откроеся главная страница mts.ru, c текстом "Пополнение и оплата"</t>
@@ -139,6 +133,20 @@
   </si>
   <si>
     <t>"", +79186253434</t>
+  </si>
+  <si>
+    <t>На страница есть текст "Укажите ваше имя"</t>
+  </si>
+  <si>
+    <t>Поле "Имя" вывело предупреждение</t>
+  </si>
+  <si>
+    <t>Оставить заявку на оформление тарифа
+ с некорректными данными</t>
+  </si>
+  <si>
+    <t>Оставить заявку на оформление тарифа
+ с корректными данными</t>
   </si>
 </sst>
 </file>
@@ -600,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E9212D7-D869-8B42-BC61-E1262BC680DB}">
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -640,36 +648,36 @@
         <v>6</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I1" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
+      <c r="C2" s="10" t="s">
+        <v>35</v>
       </c>
       <c r="D2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
         <v>19</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
       </c>
       <c r="F2" t="s">
         <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I2" s="2" t="s">
         <v>10</v>
@@ -678,13 +686,13 @@
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I3" s="2" t="s">
         <v>10</v>
@@ -693,13 +701,13 @@
     <row r="4" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I4" s="2" t="s">
         <v>10</v>
@@ -708,13 +716,13 @@
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
         <v>10</v>
@@ -723,13 +731,13 @@
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="F6" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" t="s">
         <v>15</v>
       </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
       <c r="H6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I6" s="2" t="s">
         <v>10</v>
@@ -742,13 +750,13 @@
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
       <c r="F7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>18</v>
-      </c>
       <c r="H7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>10</v>
@@ -780,36 +788,36 @@
         <v>6</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I9" s="8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" t="s">
-        <v>11</v>
+      <c r="C10" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H10" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I10" s="2" t="s">
         <v>10</v>
@@ -818,13 +826,13 @@
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="F11" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I11" s="2" t="s">
         <v>10</v>
@@ -833,13 +841,13 @@
     <row r="12" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
       <c r="F12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>10</v>
@@ -848,50 +856,35 @@
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
       <c r="F13" t="s">
+        <v>13</v>
+      </c>
+      <c r="G13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="1"/>
-      <c r="F14" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="3"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="4" t="s">
+      <c r="G14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>21</v>
+      <c r="I14" s="5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
